--- a/Comparison.xlsx
+++ b/Comparison.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d661cc535043b6a8/Documents/Nancy Polytech/4A/Semester Spring/Optimization/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="8_{442CB9D3-5A51-4C43-B212-AA08CB15C628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0339D861-4264-4A7E-8E4D-8A135ADC9648}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="8_{442CB9D3-5A51-4C43-B212-AA08CB15C628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24876194-BBC9-48E6-93C4-8B5F36DE5A4F}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{3C673F74-094D-40A9-BC83-CEABFCAD1CF0}"/>
   </bookViews>
